--- a/1-freshman/2st-semester/데이터분석입문/하계올림픽메달.xlsx
+++ b/1-freshman/2st-semester/데이터분석입문/하계올림픽메달.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,47 +472,47 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>5116</v>
+        <v>5789</v>
       </c>
       <c r="D2" t="n">
-        <v>5082</v>
+        <v>5759</v>
       </c>
       <c r="E2" t="n">
-        <v>5490</v>
+        <v>6277</v>
       </c>
       <c r="F2" t="n">
-        <v>15688</v>
+        <v>17825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>미국 (USA) [P] [Q] [R] [Z] [F]</t>
+          <t>미국 (USA)[P][Q][R][Z][F]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>1022</v>
+        <v>1101</v>
       </c>
       <c r="D3" t="n">
-        <v>795</v>
+        <v>874</v>
       </c>
       <c r="E3" t="n">
-        <v>706</v>
+        <v>780</v>
       </c>
       <c r="F3" t="n">
-        <v>2523</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>소련 (URS) [URS]</t>
+          <t>소련 (URS)[URS]</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -534,265 +534,265 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>영국 (GBR) [GBR] [Z]</t>
+          <t>중화인민공화국 (CHN)[CHN]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="D5" t="n">
-        <v>295</v>
+        <v>226</v>
       </c>
       <c r="E5" t="n">
-        <v>293</v>
+        <v>198</v>
       </c>
       <c r="F5" t="n">
-        <v>851</v>
+        <v>727</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>중화인민공화국 (CHN) [CHN]</t>
+          <t>영국 (GBR)[GBR][Z]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>224</v>
+        <v>298</v>
       </c>
       <c r="D6" t="n">
-        <v>167</v>
+        <v>340</v>
       </c>
       <c r="E6" t="n">
-        <v>155</v>
+        <v>343</v>
       </c>
       <c r="F6" t="n">
-        <v>546</v>
+        <v>981</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>프랑스 (FRA) [O] [P] [Z]</t>
+          <t>프랑스 (FRA)[O][P][Z]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="D7" t="n">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="E7" t="n">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="F7" t="n">
-        <v>716</v>
+        <v>815</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>이탈리아 (ITA) [M] [S]</t>
+          <t>이탈리아 (ITA)[M][S]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="D8" t="n">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="E8" t="n">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="F8" t="n">
-        <v>577</v>
+        <v>658</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>독일 (GER) [GER] [Z]</t>
+          <t>독일 (GER)[GER] [Z]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="D9" t="n">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="E9" t="n">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="F9" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>헝가리 (HUN)</t>
+          <t>일본 (JPN)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D10" t="n">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="E10" t="n">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="F10" t="n">
-        <v>491</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>동독 (GDR) [GDR]</t>
+          <t>헝가리 (HUN)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="D11" t="n">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="E11" t="n">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="F11" t="n">
-        <v>409</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>러시아 (RUS) [RUS]</t>
+          <t>오스트레일리아 (AUS)[AUS][Z]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D12" t="n">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="E12" t="n">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="F12" t="n">
-        <v>426</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>오스트레일리아 (AUS) [AUS] [Z]</t>
+          <t>동독 (GDR)[GDR]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D13" t="n">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="E13" t="n">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="F13" t="n">
-        <v>497</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>스웨덴 (SWE) [Z]</t>
+          <t>스웨덴 (SWE)[Z]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D14" t="n">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E14" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F14" t="n">
-        <v>494</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>일본 (JPN)</t>
+          <t>러시아 (RUS)[RUS]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D15" t="n">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E15" t="n">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F15" t="n">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>핀란드 (FIN)</t>
+          <t>네덜란드 (NED)[Z]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D16" t="n">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="E16" t="n">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="F16" t="n">
-        <v>303</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17">
@@ -802,349 +802,349 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D17" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="F17" t="n">
-        <v>267</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>루마니아 (ROU)</t>
+          <t>핀란드 (FIN)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D18" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E18" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F18" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>네덜란드 (NED) [Z]</t>
+          <t>루마니아 (ROU)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D19" t="n">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E19" t="n">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="F19" t="n">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>쿠바 (CUB) [Z]</t>
+          <t>쿠바 (CUB)[Z]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D20" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E20" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F20" t="n">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>폴란드 (POL)</t>
+          <t>캐나다 (CAN)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C21" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D21" t="n">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="E21" t="n">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="F21" t="n">
-        <v>284</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>캐나다 (CAN)</t>
+          <t>폴란드 (POL)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C22" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D22" t="n">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E22" t="n">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F22" t="n">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>노르웨이 (NOR) [Q]</t>
+          <t>노르웨이 (NOR)[Q]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C23" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D23" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E23" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F23" t="n">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>서독 (FRG) [FRG]</t>
+          <t>뉴질랜드 (NZL)[NZL]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C24" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D24" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E24" t="n">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="F24" t="n">
-        <v>204</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>불가리아 (BUL) [H]</t>
+          <t>불가리아 (BUL)[H]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C25" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D25" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E25" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F25" t="n">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>스위스 (SUI)</t>
+          <t>서독 (FRG)[FRG]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D26" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F26" t="n">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>체코슬로바키아 (TCH) [TCH]</t>
+          <t>스위스 (SUI)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D27" t="n">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="E27" t="n">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="F27" t="n">
-        <v>143</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>뉴질랜드 (NZL) [NZL]</t>
+          <t>스페인 (ESP)[Z]</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C28" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D28" t="n">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="E28" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F28" t="n">
-        <v>117</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>스페인 (ESP) [Z]</t>
+          <t>덴마크 (DEN)[Z]</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C29" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E29" t="n">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="F29" t="n">
-        <v>150</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>덴마크 (DEN) [Z]</t>
+          <t>체코슬로바키아 (TCH)[TCH]</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C30" t="n">
+        <v>49</v>
+      </c>
+      <c r="D30" t="n">
+        <v>49</v>
+      </c>
+      <c r="E30" t="n">
         <v>45</v>
       </c>
-      <c r="D30" t="n">
-        <v>74</v>
-      </c>
-      <c r="E30" t="n">
-        <v>75</v>
-      </c>
       <c r="F30" t="n">
-        <v>194</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>연합 (EUN) [EUN]</t>
+          <t>벨기에 (BEL)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C31" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D31" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E31" t="n">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="F31" t="n">
-        <v>112</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>벨기에 (BEL)</t>
+          <t>연합 (EUN)[EUN]</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D32" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E32" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F32" t="n">
-        <v>148</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -1154,104 +1154,104 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C33" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D33" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E33" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F33" t="n">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>우크라이나 (UKR)</t>
+          <t>브라질 (BRA)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C34" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D34" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E34" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F34" t="n">
-        <v>121</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>그리스 (GRE) [Z]</t>
+          <t>케냐 (KEN)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C35" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D35" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E35" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F35" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>케냐 (KEN)</t>
+          <t>우크라이나 (UKR)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C36" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D36" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E36" t="n">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="F36" t="n">
-        <v>103</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>브라질 (BRA)</t>
+          <t>그리스 (GRE)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C37" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D37" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E37" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F37" t="n">
         <v>129</v>
@@ -1260,29 +1260,29 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>유고슬라비아 (YUG) [YUG]</t>
+          <t>남아프리카 공화국 (RSA)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C38" t="n">
         <v>28</v>
       </c>
       <c r="D38" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E38" t="n">
         <v>31</v>
       </c>
       <c r="F38" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>독일 연합 (EUA) [EUA]</t>
+          <t>독일 연합 (EUA)[EUA]</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1304,438 +1304,438 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>남아프리카 공화국 (RSA)</t>
+          <t>이란 (IRI)[K]</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D40" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E40" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F40" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>자메이카 (JAM) [JAM]</t>
+          <t>자메이카 (JAM)[JAM]</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C41" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D41" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E41" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F41" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>에티오피아 (ETH)</t>
+          <t>유고슬라비아 (YUG)[YUG to 1992]</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C42" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D42" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E42" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F42" t="n">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>아르헨티나 (ARG)</t>
+          <t>에티오피아 (ETH)</t>
         </is>
       </c>
       <c r="B43" t="n">
+        <v>15</v>
+      </c>
+      <c r="C43" t="n">
         <v>24</v>
       </c>
-      <c r="C43" t="n">
-        <v>21</v>
-      </c>
       <c r="D43" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F43" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>이란 (IRI) [K]</t>
+          <t>오스트리아 (AUT)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C44" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D44" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E44" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F44" t="n">
-        <v>69</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>오스트리아 (AUT)</t>
+          <t>아르헨티나 (ARG)</t>
         </is>
       </c>
       <c r="B45" t="n">
+        <v>26</v>
+      </c>
+      <c r="C45" t="n">
+        <v>22</v>
+      </c>
+      <c r="D45" t="n">
         <v>27</v>
       </c>
-      <c r="C45" t="n">
-        <v>18</v>
-      </c>
-      <c r="D45" t="n">
-        <v>33</v>
-      </c>
       <c r="E45" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F45" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>조선민주주의인민공화국 (PRK)</t>
+          <t>체코 (CZE)[CZE]</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C46" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D46" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E46" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F46" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>체코 (CZE) [CZE]</t>
+          <t>ROC (ROC)[ROC]</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D47" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E47" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F47" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>카자흐스탄 (KAZ)</t>
+          <t>우즈베키스탄 (UZB)</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D48" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F48" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>멕시코 (MEX)</t>
+          <t>조선민주주의인민공화국 (PRK)</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C49" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D49" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E49" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F49" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>벨라루스 (BLR)</t>
+          <t>크로아티아 (CRO)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C50" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D50" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>크로아티아 (CRO)</t>
+          <t>카자흐스탄 (KAZ)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E51" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F51" t="n">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>에스토니아 (EST)</t>
+          <t>아일랜드 (IRL)</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C52" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>인도 (IND) [F]</t>
+          <t>멕시코 (MEX)</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C53" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E53" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F53" t="n">
-        <v>28</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>슬로바키아 (SVK) [SVK]</t>
+          <t>조지아 (GEO)</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F54" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>아일랜드 (IRL)</t>
+          <t>벨라루스 (BLR)</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C55" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D55" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E55" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F55" t="n">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>태국 (THA)</t>
+          <t>혼성 (ZZX)[ZZX]</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D56" t="n">
+        <v>6</v>
+      </c>
+      <c r="E56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" t="n">
-        <v>16</v>
-      </c>
       <c r="F56" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>혼성 (ZZX) [ZZX]</t>
+          <t>태국 (THA)</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C57" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F57" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>조지아 (GEO)</t>
+          <t>인도네시아 (INA)</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C58" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D58" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E58" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F58" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>우즈베키스탄 (UZB)</t>
+          <t>슬로베니아 (SLO)</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C59" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F59" t="n">
         <v>31</v>
@@ -1744,636 +1744,636 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>아제르바이잔 (AZE)</t>
+          <t>인도 (IND)[F]</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F60" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>이집트 (EGY) [EGY] [Z]</t>
+          <t>에스토니아 (EST)</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C61" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D61" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>인도네시아 (INA)</t>
+          <t>슬로바키아 (SVK)[SVK]</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C62" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D62" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E62" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F62" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>모로코 (MAR)</t>
+          <t>중화 타이베이 (TPE)[TPE][TPE2]</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E63" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F63" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>리투아니아 (LTU)</t>
+          <t>세르비아 (SRB)[SRB]</t>
         </is>
       </c>
       <c r="B64" t="n">
+        <v>6</v>
+      </c>
+      <c r="C64" t="n">
         <v>9</v>
       </c>
-      <c r="C64" t="n">
-        <v>6</v>
-      </c>
       <c r="D64" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F64" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>바하마 (BAH)</t>
+          <t>이집트 (EGY)[EGY][Z]</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F65" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>알제리 (ALG)</t>
+          <t>아제르바이잔 (AZE)</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D66" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E66" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F66" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>슬로베니아 (SLO)</t>
+          <t>바하마 (BAH)</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D67" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F67" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>콜롬비아 (COL)</t>
+          <t>모로코 (MAR)</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C68" t="n">
+        <v>8</v>
+      </c>
+      <c r="D68" t="n">
         <v>5</v>
       </c>
-      <c r="D68" t="n">
-        <v>9</v>
-      </c>
       <c r="E68" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F68" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>중화 타이베이 (TPE) [TPE] [TPE2]</t>
+          <t>알제리 (ALG)</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E69" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F69" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>포르투갈 (POR)</t>
+          <t>튀니지 (TUN)</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C70" t="n">
+        <v>6</v>
+      </c>
+      <c r="D70" t="n">
         <v>4</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>8</v>
       </c>
-      <c r="E70" t="n">
-        <v>12</v>
-      </c>
       <c r="F70" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>튀니지 (TUN)</t>
+          <t>포르투갈 (POR)</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E71" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F71" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>나이지리아 (NGR)</t>
+          <t>리투아니아 (LTU)</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E72" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F72" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>파키스탄 (PAK)</t>
+          <t>콜롬비아 (COL)</t>
         </is>
       </c>
       <c r="B73" t="n">
+        <v>21</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>16</v>
+      </c>
+      <c r="E73" t="n">
         <v>17</v>
       </c>
-      <c r="C73" t="n">
-        <v>3</v>
-      </c>
-      <c r="D73" t="n">
-        <v>3</v>
-      </c>
-      <c r="E73" t="n">
-        <v>4</v>
-      </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>트리니다드 토바고 (TRI) [TRI]</t>
+          <t>우간다 (UGA)</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>17</v>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>5</v>
       </c>
       <c r="E74" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>짐바브웨 (ZIM) [ZIM]</t>
+          <t>에콰도르 (ECU)</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>4</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>세르비아 (SRB) [SRB]</t>
+          <t>바레인 (BRN)</t>
         </is>
       </c>
       <c r="B76" t="n">
+        <v>11</v>
+      </c>
+      <c r="C76" t="n">
         <v>4</v>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>3</v>
       </c>
-      <c r="D76" t="n">
-        <v>6</v>
-      </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>라트비아 (LAT)</t>
+          <t>도미니카 공화국 (DOM)</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>도미니카 공화국 (DOM)</t>
+          <t>라트비아 (LAT)</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>오스트랄라시아 (ANZ) [ANZ]</t>
+          <t>이스라엘 (ISR)</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>카메룬 (CMR)</t>
+          <t>홍콩 (HKG)[HKG]</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C80" t="n">
+        <v>4</v>
+      </c>
+      <c r="D80" t="n">
         <v>3</v>
       </c>
-      <c r="D80" t="n">
-        <v>1</v>
-      </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>바레인 (BRN)</t>
+          <t>파키스탄 (PAK)</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>아르메니아 (ARM)</t>
+          <t>트리니다드 토바고 (TTO)[TTO]</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F82" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>우간다 (UGA)</t>
+          <t>칠레 (CHI)[I]</t>
         </is>
       </c>
       <c r="B83" t="n">
+        <v>25</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3</v>
+      </c>
+      <c r="D83" t="n">
+        <v>8</v>
+      </c>
+      <c r="E83" t="n">
+        <v>4</v>
+      </c>
+      <c r="F83" t="n">
         <v>15</v>
-      </c>
-      <c r="C83" t="n">
-        <v>2</v>
-      </c>
-      <c r="D83" t="n">
-        <v>3</v>
-      </c>
-      <c r="E83" t="n">
-        <v>2</v>
-      </c>
-      <c r="F83" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>우루과이 (URU)</t>
+          <t>오스트랄라시아 (ANZ)[ANZ]</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>칠레 (CHI) [I]</t>
+          <t>카메룬 (CMR)</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>몽골 (MGL)</t>
+          <t>베네수엘라 (VEN)</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E86" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F86" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>베네수엘라 (VEN)</t>
+          <t>필리핀 (PHI)</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E87" t="n">
         <v>10</v>
       </c>
       <c r="F87" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>러시아 제국 (RU1) [RU1]</t>
+          <t>짐바브웨 (ZIM)[ZIM]</t>
         </is>
       </c>
       <c r="B88" t="n">
+        <v>15</v>
+      </c>
+      <c r="C88" t="n">
         <v>3</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>4</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>8</v>
@@ -2382,89 +2382,89 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>푸에르토리코 (PUR)</t>
+          <t>나이지리아 (NGR)</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>18</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F89" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>그레나다 (GRN)</t>
+          <t>코소보 (KOS)</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>부룬디 (BDI)</t>
+          <t>우루과이 (URU)</t>
         </is>
       </c>
       <c r="B91" t="n">
+        <v>23</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" t="n">
         <v>6</v>
       </c>
-      <c r="C91" t="n">
-        <v>1</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>아랍에미리트 (UAE)</t>
+          <t>카타르 (QAT)</t>
         </is>
       </c>
       <c r="B92" t="n">
+        <v>11</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5</v>
+      </c>
+      <c r="F92" t="n">
         <v>9</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1</v>
-      </c>
-      <c r="F92" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -2474,129 +2474,129 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>타지키스탄 (TJK)</t>
+          <t>룩셈부르크 (LUX)[O]</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>수리남 (SUR) [E]</t>
+          <t>몽골 (MGL)</t>
         </is>
       </c>
       <c r="B95" t="n">
+        <v>15</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" t="n">
         <v>12</v>
       </c>
-      <c r="C95" t="n">
-        <v>1</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>싱가포르 (SIN)</t>
+          <t>푸에르토리코 (PUR)</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>2</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>에콰도르 (ECU)</t>
+          <t>세르비아 몬테네그로 (SCG)[YUG/SCG]</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>시리아 (SYR)</t>
+          <t>아르메니아 (ARM)</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99">
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -2624,33 +2624,33 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>페루 (PER) [L]</t>
+          <t>코트디부아르 (CIV)[CIV]</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
       </c>
       <c r="D100" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" t="n">
         <v>3</v>
       </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
       <c r="F100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>코트디부아르 (CIV) [CIV]</t>
+          <t>세인트루시아 (LCA)</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -2659,42 +2659,42 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>파나마 (PAN)</t>
+          <t>러시아 제국 (RU1)[RU1]</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F102" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>룩셈부르크 (LUX) [O]</t>
+          <t>파나마 (PAN)</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -2703,42 +2703,42 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F103" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>홍콩 (HKG) [HKG]</t>
+          <t>요르단 (JOR)</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104" t="n">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>독립 (IOA) [IOA]</t>
+          <t>모잠비크 (MOZ)</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -2756,7 +2756,7 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>베트남 (VIE)</t>
+          <t>과테말라 (GUA)</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2766,23 +2766,23 @@
         <v>1</v>
       </c>
       <c r="D106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="n">
         <v>3</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
-      <c r="F106" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>이스라엘 (ISR)</t>
+          <t>그레나다 (GRN)</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -2791,20 +2791,20 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F107" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>코소보 (KOS)</t>
+          <t>도미니카 연방 (DMA)</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -2822,42 +2822,42 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>요르단 (JOR)</t>
+          <t>보츠와나 (BOT)</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>모잠비크 (MOZ)</t>
+          <t>부룬디 (BDI)</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
         <v>2</v>
@@ -2866,20 +2866,20 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>탄자니아 (TAN) [TAN]</t>
+          <t>버뮤다 (BER)</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
         <v>2</v>
@@ -2888,80 +2888,80 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>러시아 출신 올림픽 선수 (OAR)</t>
+          <t>독립 (IOA)[IOA]</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>독립 참가 (IOP) [IOP]</t>
+          <t>개인 중립 (AIN)[AIN]</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>잠비아 (ZAM) [ZAM]</t>
+          <t>시리아 (SYR)</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F114" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>토고 (TOG)</t>
+          <t>아랍에미리트 (UAE)</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -2970,86 +2970,86 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>보헤미아 (BOH) [BOH] [Z]</t>
+          <t>베트남 (VIE)</t>
         </is>
       </c>
       <c r="B116" t="n">
+        <v>17</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
         <v>3</v>
       </c>
-      <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1</v>
-      </c>
       <c r="E116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>미국령 버진아일랜드 (ISV)</t>
+          <t>타지키스탄 (TJK)</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>통가 (TGA)</t>
+          <t>싱가포르 (SGP)</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>바베이도스 (BAR) [BAR]</t>
+          <t>수리남 (SUR)[E]</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -3058,39 +3058,39 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>서인도 연방 (BWI) [BWI]</t>
+          <t>페루 (PER)[L]</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>보츠와나 (BOT)</t>
+          <t>보헤미아 (BOH)[BOH][Z]</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3099,20 +3099,20 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>버뮤다 (BER)</t>
+          <t>바베이도스 (BAR)[BAR]</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3130,33 +3130,33 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>키르기스스탄 (KGZ)</t>
+          <t>아프가니스탄 (AFG)</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F123" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>에리트레아 (ERI)</t>
+          <t>알바니아 (ALB)</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3165,16 +3165,16 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>수단 (SUD)</t>
+          <t>키프로스 (CYP)</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -3184,45 +3184,45 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>스리랑카 (SRI) [SRI]</t>
+          <t>카보베르데 (CPV)</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>리히텐슈타인 (LIE)</t>
+          <t>부르키나파소 (BUR)</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3231,20 +3231,20 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>쿠웨이트 (KUW)</t>
+          <t>서인도 연방 (BWI)[BWI]</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3262,20 +3262,20 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>북마케도니아 (MKD)</t>
+          <t>가봉 (GAB)</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
         <v>1</v>
@@ -3284,33 +3284,33 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>말레이시아 (MAS) [MAS]</t>
+          <t>에리트레아 (ERI)</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>모리셔스 (MRI)</t>
+          <t>지부티 (DJI)[B]</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3328,33 +3328,33 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>몰도바 (MDA)</t>
+          <t>이라크 (IRQ)</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>몬테네그로 (MNE)</t>
+          <t>니제르 (NIG)</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3363,73 +3363,73 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>나미비아 (NAM)</t>
+          <t>네덜란드령 안틸레스 (AHO)[AHO][I]</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>네덜란드령 안틸레스 (AHO) [AHO] [I]</t>
+          <t>나미비아 (NAM)</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>이라크 (IRQ)</t>
+          <t>몬테네그로 (MNE)</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
         <v>1</v>
@@ -3438,165 +3438,165 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>니제르 (NIG)</t>
+          <t>모리셔스 (MRI)</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>아이슬란드 (ISL)</t>
+          <t>말레이시아 (MAS)[MAS]</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E138" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F138" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>아이티 (HAI) [J]</t>
+          <t>몰도바 (MDA)</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F139" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>파라과이 (PAR)</t>
+          <t>리히텐슈타인 (LIE)</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>필리핀 (PHI)</t>
+          <t>쿠웨이트 (KUW)</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
       </c>
       <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
         <v>3</v>
       </c>
-      <c r="E141" t="n">
-        <v>7</v>
-      </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>가이아나 (GUY) [GUY]</t>
+          <t>키르기스스탄 (KGZ)</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>과테말라 (GUA)</t>
+          <t>레바논 (LBN)</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>카타르 (QAT)</t>
+          <t>가나 (GHA)[GHA]</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -3614,33 +3614,33 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>가나 (GHA) [GHA]</t>
+          <t>가이아나 (GUY)[GUY]</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>가봉 (GAB)</t>
+          <t>아이티 (HAI)[J]</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -3649,42 +3649,42 @@
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>사모아 (SAM)</t>
+          <t>아이슬란드 (ISL)</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>사우디아라비아 (KSA)</t>
+          <t>북마케도니아 (MKD)</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -3693,64 +3693,64 @@
         <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>세네갈 (SEN)</t>
+          <t>스리랑카 (SRI)[SRI]</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>레바논 (LIB)</t>
+          <t>산마리노 (SMR)</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
         <v>2</v>
       </c>
       <c r="F150" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>세르비아 몬테네그로 (SCG) [SCG]</t>
+          <t>사우디아라비아 (KSA)</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -3759,20 +3759,20 @@
         <v>2</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F151" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>지부티 (DJI) [B]</t>
+          <t>러시아 출신 (OAR)[OAR]</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -3781,20 +3781,20 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>키프로스 (CYP)</t>
+          <t>사모아 (SAM)</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -3812,23 +3812,243 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>아프가니스탄 (AFG)</t>
+          <t>세네갈 (SEN)</t>
         </is>
       </c>
       <c r="B154" t="n">
+        <v>16</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>파라과이 (PAR)</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
         <v>14</v>
       </c>
-      <c r="C154" t="n">
-        <v>0</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0</v>
-      </c>
-      <c r="E154" t="n">
-        <v>2</v>
-      </c>
-      <c r="F154" t="n">
-        <v>2</v>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>난민 (EOR)</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>3</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>투르크메니스탄 (TKM)</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>8</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>통가 (TGA)</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>11</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>토고 (TOG)</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>12</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>탄자니아 (TAN)[TAN]</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>15</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>수단 (SUD)</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>14</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>미국령 버진아일랜드 (ISV)</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>14</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>잠비아 (ZAM)[ZAM]</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>15</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>독립 참가 (IOP)[IOP]</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
